--- a/scraper/top_remaining_spreadsheets_states/top_remaining_KY.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_KY.xlsx
@@ -44,7 +44,7 @@
     <t>Loose Change</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>5X THE CASH</t>
@@ -83,12 +83,12 @@
     <t>10X THE CASH</t>
   </si>
   <si>
+    <t>Holiday Gold $10,000</t>
+  </si>
+  <si>
     <t>Find $100</t>
   </si>
   <si>
-    <t>Holiday Gold $10,000</t>
-  </si>
-  <si>
     <t>Triple 777</t>
   </si>
   <si>
@@ -131,12 +131,12 @@
     <t>Big Red Bucks - Big Blue Bucks</t>
   </si>
   <si>
+    <t>Giant Jumbo Bucks</t>
+  </si>
+  <si>
     <t>Deluxe Crossword Doubler</t>
   </si>
   <si>
-    <t>Giant Jumbo Bucks</t>
-  </si>
-  <si>
     <t>Holiday Gifts - $30,000</t>
   </si>
   <si>
@@ -161,10 +161,10 @@
     <t>XTREME Cash</t>
   </si>
   <si>
+    <t>$10,000,000 Cash Explosion</t>
+  </si>
+  <si>
     <t>Holiday Gold $150,000</t>
-  </si>
-  <si>
-    <t>$10,000,000 Cash Explosion</t>
   </si>
   <si>
     <t>Lucky 7's Multiplier</t>
@@ -842,10 +842,10 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -862,10 +862,10 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -945,7 +945,7 @@
         <v>708</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1182,10 +1182,10 @@
         <v>38</v>
       </c>
       <c r="D31">
-        <v>533</v>
+        <v>674</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1202,10 +1202,10 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>674</v>
+        <v>533</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1362,10 +1362,10 @@
         <v>48</v>
       </c>
       <c r="D40">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1382,10 +1382,10 @@
         <v>49</v>
       </c>
       <c r="D41">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1485,7 +1485,7 @@
         <v>663</v>
       </c>
       <c r="E46">
-        <v>2290</v>
+        <v>2251</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_KY.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_KY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,10 @@
     <t>Loose Change</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>7.11.21® Tripler</t>
   </si>
   <si>
     <t>5X THE CASH</t>
@@ -56,42 +59,42 @@
     <t>Junior Jumbo Bucks</t>
   </si>
   <si>
+    <t>Wild 8's</t>
+  </si>
+  <si>
     <t>Lucky In Love</t>
   </si>
   <si>
-    <t>Wild 8's</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Red Hot 100's</t>
+  </si>
+  <si>
     <t>Bingo</t>
   </si>
   <si>
-    <t>Red Hot 100's</t>
+    <t>10X THE CASH</t>
   </si>
   <si>
     <t>Lucky 7's Doubler</t>
   </si>
   <si>
+    <t>Holiday Gold $10,000</t>
+  </si>
+  <si>
+    <t>Triple 777</t>
+  </si>
+  <si>
+    <t>Find $100</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks</t>
+  </si>
+  <si>
     <t>Crossword</t>
   </si>
   <si>
-    <t>Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>10X THE CASH</t>
-  </si>
-  <si>
-    <t>Holiday Gold $10,000</t>
-  </si>
-  <si>
-    <t>Find $100</t>
-  </si>
-  <si>
-    <t>Triple 777</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -119,16 +122,22 @@
     <t>Money Multiplier</t>
   </si>
   <si>
+    <t>Power 8's</t>
+  </si>
+  <si>
+    <t>Spicy Hot Crossword</t>
+  </si>
+  <si>
     <t>20X THE CASH</t>
   </si>
   <si>
+    <t>Big Red Bucks - Big Blue Bucks</t>
+  </si>
+  <si>
     <t>Folding Money Double Bonus</t>
   </si>
   <si>
-    <t>Power 8's</t>
-  </si>
-  <si>
-    <t>Big Red Bucks - Big Blue Bucks</t>
+    <t>Fat Wallet</t>
   </si>
   <si>
     <t>Giant Jumbo Bucks</t>
@@ -155,21 +164,21 @@
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>XTREME Cash</t>
+  </si>
+  <si>
     <t>CashTastic Doubler</t>
   </si>
   <si>
-    <t>XTREME Cash</t>
-  </si>
-  <si>
     <t>$10,000,000 Cash Explosion</t>
   </si>
   <si>
+    <t>Lucky 7's Multiplier</t>
+  </si>
+  <si>
     <t>Holiday Gold $150,000</t>
   </si>
   <si>
-    <t>Lucky 7's Multiplier</t>
-  </si>
-  <si>
     <t>$100,000 Large</t>
   </si>
   <si>
@@ -182,16 +191,16 @@
     <t>$25, $50, or $100</t>
   </si>
   <si>
+    <t>Bluegrass Blowout</t>
+  </si>
+  <si>
+    <t>Solid Gold Doubler</t>
+  </si>
+  <si>
+    <t>Holiday Gifts - $125,000</t>
+  </si>
+  <si>
     <t>Mega Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>Solid Gold Doubler</t>
-  </si>
-  <si>
-    <t>Holiday Gifts - $125,000</t>
-  </si>
-  <si>
-    <t>Bluegrass Blowout</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -563,7 +572,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,10 +631,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -642,10 +651,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -662,10 +671,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -682,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -716,16 +725,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8">
-        <v>645</v>
+        <v>701</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -736,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -756,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -776,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -796,16 +805,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -816,16 +825,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -836,13 +845,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -856,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -865,7 +874,7 @@
         <v>707</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -876,13 +885,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -896,13 +905,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -916,16 +925,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -936,16 +945,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -956,16 +965,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
       <c r="D20">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -976,16 +985,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
       <c r="D21">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -996,16 +1005,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1016,16 +1025,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1036,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1056,16 +1065,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1076,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1096,16 +1105,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1116,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1136,16 +1145,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
       <c r="D29">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1156,16 +1165,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1176,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
       <c r="D31">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1196,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
       <c r="D32">
-        <v>533</v>
+        <v>682</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1216,16 +1225,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1236,16 +1245,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
       <c r="D34">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1256,16 +1265,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1276,16 +1285,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
       <c r="D36">
-        <v>531</v>
+        <v>668</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1296,16 +1305,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
       <c r="D37">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1316,16 +1325,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
       <c r="D38">
-        <v>644</v>
+        <v>532</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1336,16 +1345,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>653</v>
+        <v>531</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1356,16 +1365,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>530</v>
+        <v>641</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1376,16 +1385,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>49</v>
       </c>
       <c r="D41">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1396,13 +1405,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
       </c>
       <c r="D42">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1416,13 +1425,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
       </c>
       <c r="D43">
-        <v>651</v>
+        <v>530</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1436,16 +1445,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>52</v>
       </c>
       <c r="D44">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1456,16 +1465,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>53</v>
       </c>
       <c r="D45">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1476,16 +1485,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>54</v>
       </c>
       <c r="D46">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="E46">
-        <v>2251</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1496,16 +1505,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
       </c>
       <c r="D47">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1516,16 +1525,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
       </c>
       <c r="D48">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1536,16 +1545,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
       </c>
       <c r="D49">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>2097</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1556,16 +1565,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>58</v>
       </c>
       <c r="D50">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1576,16 +1585,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D51">
-        <v>633</v>
+        <v>683</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1596,16 +1605,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
       </c>
       <c r="D52">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1616,16 +1625,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
       </c>
       <c r="D53">
-        <v>482</v>
+        <v>675</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1636,16 +1645,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D54">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1656,16 +1665,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D55">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1676,16 +1685,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1696,16 +1705,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57">
-        <v>634</v>
+        <v>482</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1716,13 +1725,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
         <v>65</v>
       </c>
-      <c r="C58" t="s">
-        <v>67</v>
-      </c>
       <c r="D58">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1736,18 +1745,98 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>689</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>609</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>69</v>
       </c>
-      <c r="D59">
+      <c r="D61">
+        <v>634</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>676</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63">
         <v>714</v>
       </c>
-      <c r="E59">
+      <c r="E63">
         <v>3</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F63" t="s">
         <v>9</v>
       </c>
     </row>
